--- a/natmiOut/OldD2/LR-pairs_lrc2p/Lamb2-Rpsa.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Lamb2-Rpsa.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Rpsa</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>29.03097596272</v>
+        <v>29.235875</v>
       </c>
       <c r="H2">
-        <v>29.03097596272</v>
+        <v>58.47175</v>
       </c>
       <c r="I2">
-        <v>0.2924205585908367</v>
+        <v>0.2839773920289108</v>
       </c>
       <c r="J2">
-        <v>0.2924205585908367</v>
+        <v>0.2291401779026052</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>96.3543542114473</v>
+        <v>99.91867449999999</v>
       </c>
       <c r="N2">
-        <v>96.3543542114473</v>
+        <v>199.837349</v>
       </c>
       <c r="O2">
-        <v>0.09882217640260263</v>
+        <v>0.09980137661138361</v>
       </c>
       <c r="P2">
-        <v>0.09882217640260263</v>
+        <v>0.07390657035918602</v>
       </c>
       <c r="Q2">
-        <v>2797.260941015935</v>
+        <v>2921.209877847687</v>
       </c>
       <c r="R2">
-        <v>2797.260941015935</v>
+        <v>11684.83951139075</v>
       </c>
       <c r="S2">
-        <v>0.02889763602481126</v>
+        <v>0.02834133465099585</v>
       </c>
       <c r="T2">
-        <v>0.02889763602481126</v>
+        <v>0.01693496468027529</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>29.03097596272</v>
+        <v>29.235875</v>
       </c>
       <c r="H3">
-        <v>29.03097596272</v>
+        <v>58.47175</v>
       </c>
       <c r="I3">
-        <v>0.2924205585908367</v>
+        <v>0.2839773920289108</v>
       </c>
       <c r="J3">
-        <v>0.2924205585908367</v>
+        <v>0.2291401779026052</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>287.673016673388</v>
+        <v>302.8987833333333</v>
       </c>
       <c r="N3">
-        <v>287.673016673388</v>
+        <v>908.6963499999999</v>
       </c>
       <c r="O3">
-        <v>0.2950408814694643</v>
+        <v>0.3025432002761394</v>
       </c>
       <c r="P3">
-        <v>0.2950408814694643</v>
+        <v>0.3360664613620876</v>
       </c>
       <c r="Q3">
-        <v>8351.428432168277</v>
+        <v>8855.510967185415</v>
       </c>
       <c r="R3">
-        <v>8351.428432168277</v>
+        <v>53133.0658031125</v>
       </c>
       <c r="S3">
-        <v>0.08627601936643359</v>
+        <v>0.08591542899049852</v>
       </c>
       <c r="T3">
-        <v>0.08627601936643359</v>
+        <v>0.07700632874360776</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>29.03097596272</v>
+        <v>29.235875</v>
       </c>
       <c r="H4">
-        <v>29.03097596272</v>
+        <v>58.47175</v>
       </c>
       <c r="I4">
-        <v>0.2924205585908367</v>
+        <v>0.2839773920289108</v>
       </c>
       <c r="J4">
-        <v>0.2924205585908367</v>
+        <v>0.2291401779026052</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>139.832412323062</v>
+        <v>141.0632323333333</v>
       </c>
       <c r="N4">
-        <v>139.832412323062</v>
+        <v>423.189697</v>
       </c>
       <c r="O4">
-        <v>0.143413792043758</v>
+        <v>0.1408976334660855</v>
       </c>
       <c r="P4">
-        <v>0.143413792043758</v>
+        <v>0.1565097779425262</v>
       </c>
       <c r="Q4">
-        <v>4059.471400959964</v>
+        <v>4124.107027593292</v>
       </c>
       <c r="R4">
-        <v>4059.471400959964</v>
+        <v>24744.64216555975</v>
       </c>
       <c r="S4">
-        <v>0.04193714117906579</v>
+        <v>0.04001174249474435</v>
       </c>
       <c r="T4">
-        <v>0.04193714117906579</v>
+        <v>0.03586267836124769</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>29.03097596272</v>
+        <v>29.235875</v>
       </c>
       <c r="H5">
-        <v>29.03097596272</v>
+        <v>58.47175</v>
       </c>
       <c r="I5">
-        <v>0.2924205585908367</v>
+        <v>0.2839773920289108</v>
       </c>
       <c r="J5">
-        <v>0.2924205585908367</v>
+        <v>0.2291401779026052</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>182.732692864418</v>
+        <v>183.5535736666667</v>
       </c>
       <c r="N5">
-        <v>182.732692864418</v>
+        <v>550.660721</v>
       </c>
       <c r="O5">
-        <v>0.1874128321086786</v>
+        <v>0.1833380939603272</v>
       </c>
       <c r="P5">
-        <v>0.1874128321086786</v>
+        <v>0.2036528483002774</v>
       </c>
       <c r="Q5">
-        <v>5304.908414150015</v>
+        <v>5366.349335521958</v>
       </c>
       <c r="R5">
-        <v>5304.908414150015</v>
+        <v>32198.09601313175</v>
       </c>
       <c r="S5">
-        <v>0.0548033650523105</v>
+        <v>0.05206387378240511</v>
       </c>
       <c r="T5">
-        <v>0.0548033650523105</v>
+        <v>0.04666504988989784</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>29.03097596272</v>
+        <v>29.235875</v>
       </c>
       <c r="H6">
-        <v>29.03097596272</v>
+        <v>58.47175</v>
       </c>
       <c r="I6">
-        <v>0.2924205585908367</v>
+        <v>0.2839773920289108</v>
       </c>
       <c r="J6">
-        <v>0.2924205585908367</v>
+        <v>0.2291401779026052</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>68.75302304277</v>
+        <v>74.052367</v>
       </c>
       <c r="N6">
-        <v>68.75302304277</v>
+        <v>222.157101</v>
       </c>
       <c r="O6">
-        <v>0.07051392152382488</v>
+        <v>0.07396543443869841</v>
       </c>
       <c r="P6">
-        <v>0.07051392152382488</v>
+        <v>0.08216116505753535</v>
       </c>
       <c r="Q6">
-        <v>1995.96735931899</v>
+        <v>2164.985745066125</v>
       </c>
       <c r="R6">
-        <v>1995.96735931899</v>
+        <v>12989.91447039675</v>
       </c>
       <c r="S6">
-        <v>0.02061972032042729</v>
+        <v>0.02100451117218696</v>
       </c>
       <c r="T6">
-        <v>0.02061972032042729</v>
+        <v>0.01882642397796896</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>29.03097596272</v>
+        <v>29.235875</v>
       </c>
       <c r="H7">
-        <v>29.03097596272</v>
+        <v>58.47175</v>
       </c>
       <c r="I7">
-        <v>0.2924205585908367</v>
+        <v>0.2839773920289108</v>
       </c>
       <c r="J7">
-        <v>0.2924205585908367</v>
+        <v>0.2291401779026052</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>199.682148716699</v>
+        <v>199.6886825</v>
       </c>
       <c r="N7">
-        <v>199.682148716699</v>
+        <v>399.377365</v>
       </c>
       <c r="O7">
-        <v>0.2047963964516717</v>
+        <v>0.1994542612473658</v>
       </c>
       <c r="P7">
-        <v>0.2047963964516717</v>
+        <v>0.1477031769783876</v>
       </c>
       <c r="Q7">
-        <v>5796.967659578769</v>
+        <v>5838.073360484687</v>
       </c>
       <c r="R7">
-        <v>5796.967659578769</v>
+        <v>23352.29344193875</v>
       </c>
       <c r="S7">
-        <v>0.05988667664778827</v>
+        <v>0.05664050093808</v>
       </c>
       <c r="T7">
-        <v>0.05988667664778827</v>
+        <v>0.03384473224960773</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>24.1283712427561</v>
+        <v>25.78460533333333</v>
       </c>
       <c r="H8">
-        <v>24.1283712427561</v>
+        <v>77.35381599999999</v>
       </c>
       <c r="I8">
-        <v>0.2430380503140603</v>
+        <v>0.2504541073956139</v>
       </c>
       <c r="J8">
-        <v>0.2430380503140603</v>
+        <v>0.3031355681963579</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>96.3543542114473</v>
+        <v>99.91867449999999</v>
       </c>
       <c r="N8">
-        <v>96.3543542114473</v>
+        <v>199.837349</v>
       </c>
       <c r="O8">
-        <v>0.09882217640260263</v>
+        <v>0.09980137661138361</v>
       </c>
       <c r="P8">
-        <v>0.09882217640260263</v>
+        <v>0.07390657035918602</v>
       </c>
       <c r="Q8">
-        <v>2324.87362926982</v>
+        <v>2576.363587412297</v>
       </c>
       <c r="R8">
-        <v>2324.87362926982</v>
+        <v>15458.18152447378</v>
       </c>
       <c r="S8">
-        <v>0.02401754908068068</v>
+        <v>0.02499566469605758</v>
       </c>
       <c r="T8">
-        <v>0.02401754908068068</v>
+        <v>0.02240371019927596</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>24.1283712427561</v>
+        <v>25.78460533333333</v>
       </c>
       <c r="H9">
-        <v>24.1283712427561</v>
+        <v>77.35381599999999</v>
       </c>
       <c r="I9">
-        <v>0.2430380503140603</v>
+        <v>0.2504541073956139</v>
       </c>
       <c r="J9">
-        <v>0.2430380503140603</v>
+        <v>0.3031355681963579</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>287.673016673388</v>
+        <v>302.8987833333333</v>
       </c>
       <c r="N9">
-        <v>287.673016673388</v>
+        <v>908.6963499999999</v>
       </c>
       <c r="O9">
-        <v>0.2950408814694643</v>
+        <v>0.3025432002761394</v>
       </c>
       <c r="P9">
-        <v>0.2950408814694643</v>
+        <v>0.3360664613620876</v>
       </c>
       <c r="Q9">
-        <v>6941.081342819071</v>
+        <v>7810.125584196843</v>
       </c>
       <c r="R9">
-        <v>6941.081342819071</v>
+        <v>70291.13025777158</v>
       </c>
       <c r="S9">
-        <v>0.07170616059528037</v>
+        <v>0.07577318717377295</v>
       </c>
       <c r="T9">
-        <v>0.07170616059528037</v>
+        <v>0.1018736977167358</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>24.1283712427561</v>
+        <v>25.78460533333333</v>
       </c>
       <c r="H10">
-        <v>24.1283712427561</v>
+        <v>77.35381599999999</v>
       </c>
       <c r="I10">
-        <v>0.2430380503140603</v>
+        <v>0.2504541073956139</v>
       </c>
       <c r="J10">
-        <v>0.2430380503140603</v>
+        <v>0.3031355681963579</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>139.832412323062</v>
+        <v>141.0632323333333</v>
       </c>
       <c r="N10">
-        <v>139.832412323062</v>
+        <v>423.189697</v>
       </c>
       <c r="O10">
-        <v>0.143413792043758</v>
+        <v>0.1408976334660855</v>
       </c>
       <c r="P10">
-        <v>0.143413792043758</v>
+        <v>0.1565097779425262</v>
       </c>
       <c r="Q10">
-        <v>3373.928356300983</v>
+        <v>3637.259772759306</v>
       </c>
       <c r="R10">
-        <v>3373.928356300983</v>
+        <v>32735.33795483375</v>
       </c>
       <c r="S10">
-        <v>0.03485500840646103</v>
+        <v>0.03528839102390283</v>
       </c>
       <c r="T10">
-        <v>0.03485500840646103</v>
+        <v>0.04744368046489349</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>24.1283712427561</v>
+        <v>25.78460533333333</v>
       </c>
       <c r="H11">
-        <v>24.1283712427561</v>
+        <v>77.35381599999999</v>
       </c>
       <c r="I11">
-        <v>0.2430380503140603</v>
+        <v>0.2504541073956139</v>
       </c>
       <c r="J11">
-        <v>0.2430380503140603</v>
+        <v>0.3031355681963579</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>182.732692864418</v>
+        <v>183.5535736666667</v>
       </c>
       <c r="N11">
-        <v>182.732692864418</v>
+        <v>550.660721</v>
       </c>
       <c r="O11">
-        <v>0.1874128321086786</v>
+        <v>0.1833380939603272</v>
       </c>
       <c r="P11">
-        <v>0.1874128321086786</v>
+        <v>0.2036528483002774</v>
       </c>
       <c r="Q11">
-        <v>4409.042251621206</v>
+        <v>4732.856454517926</v>
       </c>
       <c r="R11">
-        <v>4409.042251621206</v>
+        <v>42595.70809066133</v>
       </c>
       <c r="S11">
-        <v>0.04554844931952957</v>
+        <v>0.04591777867444694</v>
       </c>
       <c r="T11">
-        <v>0.04554844931952957</v>
+        <v>0.06173442188431128</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>24.1283712427561</v>
+        <v>25.78460533333333</v>
       </c>
       <c r="H12">
-        <v>24.1283712427561</v>
+        <v>77.35381599999999</v>
       </c>
       <c r="I12">
-        <v>0.2430380503140603</v>
+        <v>0.2504541073956139</v>
       </c>
       <c r="J12">
-        <v>0.2430380503140603</v>
+        <v>0.3031355681963579</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>68.75302304277</v>
+        <v>74.052367</v>
       </c>
       <c r="N12">
-        <v>68.75302304277</v>
+        <v>222.157101</v>
       </c>
       <c r="O12">
-        <v>0.07051392152382488</v>
+        <v>0.07396543443869841</v>
       </c>
       <c r="P12">
-        <v>0.07051392152382488</v>
+        <v>0.08216116505753535</v>
       </c>
       <c r="Q12">
-        <v>1658.898464037719</v>
+        <v>1909.411057094157</v>
       </c>
       <c r="R12">
-        <v>1658.898464037719</v>
+        <v>17184.69951384742</v>
       </c>
       <c r="S12">
-        <v>0.01713756600714905</v>
+        <v>0.01852494686047301</v>
       </c>
       <c r="T12">
-        <v>0.01713756600714905</v>
+        <v>0.02490597145339072</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>24.1283712427561</v>
+        <v>25.78460533333333</v>
       </c>
       <c r="H13">
-        <v>24.1283712427561</v>
+        <v>77.35381599999999</v>
       </c>
       <c r="I13">
-        <v>0.2430380503140603</v>
+        <v>0.2504541073956139</v>
       </c>
       <c r="J13">
-        <v>0.2430380503140603</v>
+        <v>0.3031355681963579</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>199.682148716699</v>
+        <v>199.6886825</v>
       </c>
       <c r="N13">
-        <v>199.682148716699</v>
+        <v>399.377365</v>
       </c>
       <c r="O13">
-        <v>0.2047963964516717</v>
+        <v>0.1994542612473658</v>
       </c>
       <c r="P13">
-        <v>0.2047963964516717</v>
+        <v>0.1477031769783876</v>
       </c>
       <c r="Q13">
-        <v>4818.005014787747</v>
+        <v>5148.893867795807</v>
       </c>
       <c r="R13">
-        <v>4818.005014787747</v>
+        <v>30893.36320677484</v>
       </c>
       <c r="S13">
-        <v>0.04977331690495963</v>
+        <v>0.04995413896696059</v>
       </c>
       <c r="T13">
-        <v>0.04977331690495963</v>
+        <v>0.04477408647775075</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.329380867886038</v>
+        <v>0.27356</v>
       </c>
       <c r="H14">
-        <v>0.329380867886038</v>
+        <v>0.82068</v>
       </c>
       <c r="I14">
-        <v>0.003317757470505153</v>
+        <v>0.002657175657079832</v>
       </c>
       <c r="J14">
-        <v>0.003317757470505153</v>
+        <v>0.003216095998513984</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>96.3543542114473</v>
+        <v>99.91867449999999</v>
       </c>
       <c r="N14">
-        <v>96.3543542114473</v>
+        <v>199.837349</v>
       </c>
       <c r="O14">
-        <v>0.09882217640260263</v>
+        <v>0.09980137661138361</v>
       </c>
       <c r="P14">
-        <v>0.09882217640260263</v>
+        <v>0.07390657035918602</v>
       </c>
       <c r="Q14">
-        <v>31.73728081476523</v>
+        <v>27.33375259621999</v>
       </c>
       <c r="R14">
-        <v>31.73728081476523</v>
+        <v>164.00251557732</v>
       </c>
       <c r="S14">
-        <v>0.0003278680140113129</v>
+        <v>0.000265189788474825</v>
       </c>
       <c r="T14">
-        <v>0.0003278680140113129</v>
+        <v>0.0002376906251960704</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.329380867886038</v>
+        <v>0.27356</v>
       </c>
       <c r="H15">
-        <v>0.329380867886038</v>
+        <v>0.82068</v>
       </c>
       <c r="I15">
-        <v>0.003317757470505153</v>
+        <v>0.002657175657079832</v>
       </c>
       <c r="J15">
-        <v>0.003317757470505153</v>
+        <v>0.003216095998513984</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>287.673016673388</v>
+        <v>302.8987833333333</v>
       </c>
       <c r="N15">
-        <v>287.673016673388</v>
+        <v>908.6963499999999</v>
       </c>
       <c r="O15">
-        <v>0.2950408814694643</v>
+        <v>0.3025432002761394</v>
       </c>
       <c r="P15">
-        <v>0.2950408814694643</v>
+        <v>0.3360664613620876</v>
       </c>
       <c r="Q15">
-        <v>94.75398789927522</v>
+        <v>82.86099116866666</v>
       </c>
       <c r="R15">
-        <v>94.75398789927522</v>
+        <v>745.7489205179999</v>
       </c>
       <c r="S15">
-        <v>0.0009788740885997406</v>
+        <v>0.0008039104269887859</v>
       </c>
       <c r="T15">
-        <v>0.0009788740885997406</v>
+        <v>0.001080822001621364</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.329380867886038</v>
+        <v>0.27356</v>
       </c>
       <c r="H16">
-        <v>0.329380867886038</v>
+        <v>0.82068</v>
       </c>
       <c r="I16">
-        <v>0.003317757470505153</v>
+        <v>0.002657175657079832</v>
       </c>
       <c r="J16">
-        <v>0.003317757470505153</v>
+        <v>0.003216095998513984</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>139.832412323062</v>
+        <v>141.0632323333333</v>
       </c>
       <c r="N16">
-        <v>139.832412323062</v>
+        <v>423.189697</v>
       </c>
       <c r="O16">
-        <v>0.143413792043758</v>
+        <v>0.1408976334660855</v>
       </c>
       <c r="P16">
-        <v>0.143413792043758</v>
+        <v>0.1565097779425262</v>
       </c>
       <c r="Q16">
-        <v>46.05812132956847</v>
+        <v>38.58925783710666</v>
       </c>
       <c r="R16">
-        <v>46.05812132956847</v>
+        <v>347.30332053396</v>
       </c>
       <c r="S16">
-        <v>0.0004758121799266504</v>
+        <v>0.0003743897617862391</v>
       </c>
       <c r="T16">
-        <v>0.0004758121799266504</v>
+        <v>0.0005033504705692708</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.329380867886038</v>
+        <v>0.27356</v>
       </c>
       <c r="H17">
-        <v>0.329380867886038</v>
+        <v>0.82068</v>
       </c>
       <c r="I17">
-        <v>0.003317757470505153</v>
+        <v>0.002657175657079832</v>
       </c>
       <c r="J17">
-        <v>0.003317757470505153</v>
+        <v>0.003216095998513984</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>182.732692864418</v>
+        <v>183.5535736666667</v>
       </c>
       <c r="N17">
-        <v>182.732692864418</v>
+        <v>550.660721</v>
       </c>
       <c r="O17">
-        <v>0.1874128321086786</v>
+        <v>0.1833380939603272</v>
       </c>
       <c r="P17">
-        <v>0.1874128321086786</v>
+        <v>0.2036528483002774</v>
       </c>
       <c r="Q17">
-        <v>60.18865296683482</v>
+        <v>50.21291561225333</v>
       </c>
       <c r="R17">
-        <v>60.18865296683482</v>
+        <v>451.91624051028</v>
       </c>
       <c r="S17">
-        <v>0.0006217903237970964</v>
+        <v>0.0004871615202867963</v>
       </c>
       <c r="T17">
-        <v>0.0006217903237970964</v>
+        <v>0.0006549671105044977</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.329380867886038</v>
+        <v>0.27356</v>
       </c>
       <c r="H18">
-        <v>0.329380867886038</v>
+        <v>0.82068</v>
       </c>
       <c r="I18">
-        <v>0.003317757470505153</v>
+        <v>0.002657175657079832</v>
       </c>
       <c r="J18">
-        <v>0.003317757470505153</v>
+        <v>0.003216095998513984</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>68.75302304277</v>
+        <v>74.052367</v>
       </c>
       <c r="N18">
-        <v>68.75302304277</v>
+        <v>222.157101</v>
       </c>
       <c r="O18">
-        <v>0.07051392152382488</v>
+        <v>0.07396543443869841</v>
       </c>
       <c r="P18">
-        <v>0.07051392152382488</v>
+        <v>0.08216116505753535</v>
       </c>
       <c r="Q18">
-        <v>22.64593039961635</v>
+        <v>20.25776551652</v>
       </c>
       <c r="R18">
-        <v>22.64593039961635</v>
+        <v>182.31988964868</v>
       </c>
       <c r="S18">
-        <v>0.0002339480899102841</v>
+        <v>0.0001965391518558437</v>
       </c>
       <c r="T18">
-        <v>0.0002339480899102841</v>
+        <v>0.0002642381941747864</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>24</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.329380867886038</v>
+        <v>0.27356</v>
       </c>
       <c r="H19">
-        <v>0.329380867886038</v>
+        <v>0.82068</v>
       </c>
       <c r="I19">
-        <v>0.003317757470505153</v>
+        <v>0.002657175657079832</v>
       </c>
       <c r="J19">
-        <v>0.003317757470505153</v>
+        <v>0.003216095998513984</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>199.682148716699</v>
+        <v>199.6886825</v>
       </c>
       <c r="N19">
-        <v>199.682148716699</v>
+        <v>399.377365</v>
       </c>
       <c r="O19">
-        <v>0.2047963964516717</v>
+        <v>0.1994542612473658</v>
       </c>
       <c r="P19">
-        <v>0.2047963964516717</v>
+        <v>0.1477031769783876</v>
       </c>
       <c r="Q19">
-        <v>65.77147944565523</v>
+        <v>54.62683598469999</v>
       </c>
       <c r="R19">
-        <v>65.77147944565523</v>
+        <v>327.7610159082</v>
       </c>
       <c r="S19">
-        <v>0.0006794647742600687</v>
+        <v>0.0005299850076873417</v>
       </c>
       <c r="T19">
-        <v>0.0006794647742600687</v>
+        <v>0.0004750275964479953</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>21.5283726539897</v>
+        <v>0.3541583333333334</v>
       </c>
       <c r="H20">
-        <v>21.5283726539897</v>
+        <v>1.062475</v>
       </c>
       <c r="I20">
-        <v>0.2168490224068076</v>
+        <v>0.003440053012448086</v>
       </c>
       <c r="J20">
-        <v>0.2168490224068076</v>
+        <v>0.004163646727130118</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>96.3543542114473</v>
+        <v>99.91867449999999</v>
       </c>
       <c r="N20">
-        <v>96.3543542114473</v>
+        <v>199.837349</v>
       </c>
       <c r="O20">
-        <v>0.09882217640260263</v>
+        <v>0.09980137661138361</v>
       </c>
       <c r="P20">
-        <v>0.09882217640260263</v>
+        <v>0.07390657035918602</v>
       </c>
       <c r="Q20">
-        <v>2074.352444298559</v>
+        <v>35.38703122979583</v>
       </c>
       <c r="R20">
-        <v>2074.352444298559</v>
+        <v>212.322187378775</v>
       </c>
       <c r="S20">
-        <v>0.02142949234501747</v>
+        <v>0.0003433220262584561</v>
       </c>
       <c r="T20">
-        <v>0.02142949234501747</v>
+        <v>0.0003077208497894367</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>21.5283726539897</v>
+        <v>0.3541583333333334</v>
       </c>
       <c r="H21">
-        <v>21.5283726539897</v>
+        <v>1.062475</v>
       </c>
       <c r="I21">
-        <v>0.2168490224068076</v>
+        <v>0.003440053012448086</v>
       </c>
       <c r="J21">
-        <v>0.2168490224068076</v>
+        <v>0.004163646727130118</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>287.673016673388</v>
+        <v>302.8987833333333</v>
       </c>
       <c r="N21">
-        <v>287.673016673388</v>
+        <v>908.6963499999999</v>
       </c>
       <c r="O21">
-        <v>0.2950408814694643</v>
+        <v>0.3025432002761394</v>
       </c>
       <c r="P21">
-        <v>0.2950408814694643</v>
+        <v>0.3360664613620876</v>
       </c>
       <c r="Q21">
-        <v>6193.131905442089</v>
+        <v>107.2741282740278</v>
       </c>
       <c r="R21">
-        <v>6193.131905442089</v>
+        <v>965.46715446625</v>
       </c>
       <c r="S21">
-        <v>0.06397932671669612</v>
+        <v>0.001040764647505618</v>
       </c>
       <c r="T21">
-        <v>0.06397932671669612</v>
+        <v>0.001399262021948457</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>21.5283726539897</v>
+        <v>0.3541583333333334</v>
       </c>
       <c r="H22">
-        <v>21.5283726539897</v>
+        <v>1.062475</v>
       </c>
       <c r="I22">
-        <v>0.2168490224068076</v>
+        <v>0.003440053012448086</v>
       </c>
       <c r="J22">
-        <v>0.2168490224068076</v>
+        <v>0.004163646727130118</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>139.832412323062</v>
+        <v>141.0632323333333</v>
       </c>
       <c r="N22">
-        <v>139.832412323062</v>
+        <v>423.189697</v>
       </c>
       <c r="O22">
-        <v>0.143413792043758</v>
+        <v>0.1408976334660855</v>
       </c>
       <c r="P22">
-        <v>0.143413792043758</v>
+        <v>0.1565097779425262</v>
       </c>
       <c r="Q22">
-        <v>3010.36428159722</v>
+        <v>49.95871925778611</v>
       </c>
       <c r="R22">
-        <v>3010.36428159722</v>
+        <v>449.628473320075</v>
       </c>
       <c r="S22">
-        <v>0.03109914060434211</v>
+        <v>0.0004846953284518138</v>
       </c>
       <c r="T22">
-        <v>0.03109914060434211</v>
+        <v>0.0006516514246942608</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>21.5283726539897</v>
+        <v>0.3541583333333334</v>
       </c>
       <c r="H23">
-        <v>21.5283726539897</v>
+        <v>1.062475</v>
       </c>
       <c r="I23">
-        <v>0.2168490224068076</v>
+        <v>0.003440053012448086</v>
       </c>
       <c r="J23">
-        <v>0.2168490224068076</v>
+        <v>0.004163646727130118</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>182.732692864418</v>
+        <v>183.5535736666667</v>
       </c>
       <c r="N23">
-        <v>182.732692864418</v>
+        <v>550.660721</v>
       </c>
       <c r="O23">
-        <v>0.1874128321086786</v>
+        <v>0.1833380939603272</v>
       </c>
       <c r="P23">
-        <v>0.1874128321086786</v>
+        <v>0.2036528483002774</v>
       </c>
       <c r="Q23">
-        <v>3933.937508052235</v>
+        <v>65.00702772716389</v>
       </c>
       <c r="R23">
-        <v>3933.937508052235</v>
+        <v>585.063249544475</v>
       </c>
       <c r="S23">
-        <v>0.04064028942925811</v>
+        <v>0.0006306927624247136</v>
       </c>
       <c r="T23">
-        <v>0.04064028942925811</v>
+        <v>0.0008479385152961766</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>21.5283726539897</v>
+        <v>0.3541583333333334</v>
       </c>
       <c r="H24">
-        <v>21.5283726539897</v>
+        <v>1.062475</v>
       </c>
       <c r="I24">
-        <v>0.2168490224068076</v>
+        <v>0.003440053012448086</v>
       </c>
       <c r="J24">
-        <v>0.2168490224068076</v>
+        <v>0.004163646727130118</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>68.75302304277</v>
+        <v>74.052367</v>
       </c>
       <c r="N24">
-        <v>68.75302304277</v>
+        <v>222.157101</v>
       </c>
       <c r="O24">
-        <v>0.07051392152382488</v>
+        <v>0.07396543443869841</v>
       </c>
       <c r="P24">
-        <v>0.07051392152382488</v>
+        <v>0.08216116505753535</v>
       </c>
       <c r="Q24">
-        <v>1480.140701153093</v>
+        <v>26.22626287610834</v>
       </c>
       <c r="R24">
-        <v>1480.140701153093</v>
+        <v>236.036365884975</v>
       </c>
       <c r="S24">
-        <v>0.01529087494851177</v>
+        <v>0.0002544450155578759</v>
       </c>
       <c r="T24">
-        <v>0.01529087494851177</v>
+        <v>0.0003420900659890045</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,61 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>21.5283726539897</v>
+        <v>0.3541583333333334</v>
       </c>
       <c r="H25">
-        <v>21.5283726539897</v>
+        <v>1.062475</v>
       </c>
       <c r="I25">
-        <v>0.2168490224068076</v>
+        <v>0.003440053012448086</v>
       </c>
       <c r="J25">
-        <v>0.2168490224068076</v>
+        <v>0.004163646727130118</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>199.682148716699</v>
+        <v>199.6886825</v>
       </c>
       <c r="N25">
-        <v>199.682148716699</v>
+        <v>399.377365</v>
       </c>
       <c r="O25">
-        <v>0.2047963964516717</v>
+        <v>0.1994542612473658</v>
       </c>
       <c r="P25">
-        <v>0.2047963964516717</v>
+        <v>0.1477031769783876</v>
       </c>
       <c r="Q25">
-        <v>4298.831709922487</v>
+        <v>70.72141097972917</v>
       </c>
       <c r="R25">
-        <v>4298.831709922487</v>
+        <v>424.328465878375</v>
       </c>
       <c r="S25">
-        <v>0.044409898362982</v>
+        <v>0.0006861332322496082</v>
       </c>
       <c r="T25">
-        <v>0.044409898362982</v>
+        <v>0.0006149838494127843</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,61 +2016,61 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>24.2610625543926</v>
+        <v>22.86379166666667</v>
       </c>
       <c r="H26">
-        <v>24.2610625543926</v>
+        <v>68.591375</v>
       </c>
       <c r="I26">
-        <v>0.2443746112177903</v>
+        <v>0.2220833113218723</v>
       </c>
       <c r="J26">
-        <v>0.2443746112177903</v>
+        <v>0.2687971519594387</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>96.3543542114473</v>
+        <v>99.91867449999999</v>
       </c>
       <c r="N26">
-        <v>96.3543542114473</v>
+        <v>199.837349</v>
       </c>
       <c r="O26">
-        <v>0.09882217640260263</v>
+        <v>0.09980137661138361</v>
       </c>
       <c r="P26">
-        <v>0.09882217640260263</v>
+        <v>0.07390657035918602</v>
       </c>
       <c r="Q26">
-        <v>2337.659014912025</v>
+        <v>2284.519757377479</v>
       </c>
       <c r="R26">
-        <v>2337.659014912025</v>
+        <v>13707.11854426487</v>
       </c>
       <c r="S26">
-        <v>0.02414963093808191</v>
+        <v>0.02216422019233734</v>
       </c>
       <c r="T26">
-        <v>0.02414963093808191</v>
+        <v>0.01986587562363907</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,61 +2078,61 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>24.2610625543926</v>
+        <v>22.86379166666667</v>
       </c>
       <c r="H27">
-        <v>24.2610625543926</v>
+        <v>68.591375</v>
       </c>
       <c r="I27">
-        <v>0.2443746112177903</v>
+        <v>0.2220833113218723</v>
       </c>
       <c r="J27">
-        <v>0.2443746112177903</v>
+        <v>0.2687971519594387</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>287.673016673388</v>
+        <v>302.8987833333333</v>
       </c>
       <c r="N27">
-        <v>287.673016673388</v>
+        <v>908.6963499999999</v>
       </c>
       <c r="O27">
-        <v>0.2950408814694643</v>
+        <v>0.3025432002761394</v>
       </c>
       <c r="P27">
-        <v>0.2950408814694643</v>
+        <v>0.3360664613620876</v>
       </c>
       <c r="Q27">
-        <v>6979.253052723891</v>
+        <v>6925.414678220139</v>
       </c>
       <c r="R27">
-        <v>6979.253052723891</v>
+        <v>62328.73210398125</v>
       </c>
       <c r="S27">
-        <v>0.07210050070245448</v>
+        <v>0.06718979573524143</v>
       </c>
       <c r="T27">
-        <v>0.07210050070245448</v>
+        <v>0.09033370768321589</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,61 +2140,61 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>24.2610625543926</v>
+        <v>22.86379166666667</v>
       </c>
       <c r="H28">
-        <v>24.2610625543926</v>
+        <v>68.591375</v>
       </c>
       <c r="I28">
-        <v>0.2443746112177903</v>
+        <v>0.2220833113218723</v>
       </c>
       <c r="J28">
-        <v>0.2443746112177903</v>
+        <v>0.2687971519594387</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>139.832412323062</v>
+        <v>141.0632323333333</v>
       </c>
       <c r="N28">
-        <v>139.832412323062</v>
+        <v>423.189697</v>
       </c>
       <c r="O28">
-        <v>0.143413792043758</v>
+        <v>0.1408976334660855</v>
       </c>
       <c r="P28">
-        <v>0.143413792043758</v>
+        <v>0.1565097779425262</v>
       </c>
       <c r="Q28">
-        <v>3392.482902501426</v>
+        <v>3225.240355895931</v>
       </c>
       <c r="R28">
-        <v>3392.482902501426</v>
+        <v>29027.16320306338</v>
       </c>
       <c r="S28">
-        <v>0.03504668967396238</v>
+        <v>0.03129101299756373</v>
       </c>
       <c r="T28">
-        <v>0.03504668967396238</v>
+        <v>0.04206938256475522</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,61 +2202,61 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>24.2610625543926</v>
+        <v>22.86379166666667</v>
       </c>
       <c r="H29">
-        <v>24.2610625543926</v>
+        <v>68.591375</v>
       </c>
       <c r="I29">
-        <v>0.2443746112177903</v>
+        <v>0.2220833113218723</v>
       </c>
       <c r="J29">
-        <v>0.2443746112177903</v>
+        <v>0.2687971519594387</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>182.732692864418</v>
+        <v>183.5535736666667</v>
       </c>
       <c r="N29">
-        <v>182.732692864418</v>
+        <v>550.660721</v>
       </c>
       <c r="O29">
-        <v>0.1874128321086786</v>
+        <v>0.1833380939603272</v>
       </c>
       <c r="P29">
-        <v>0.1874128321086786</v>
+        <v>0.2036528483002774</v>
       </c>
       <c r="Q29">
-        <v>4433.289292316255</v>
+        <v>4196.73066798682</v>
       </c>
       <c r="R29">
-        <v>4433.289292316255</v>
+        <v>37770.57601188137</v>
       </c>
       <c r="S29">
-        <v>0.04579893798378334</v>
+        <v>0.04071633099815002</v>
       </c>
       <c r="T29">
-        <v>0.04579893798378334</v>
+        <v>0.05474130561154218</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,61 +2264,61 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>24.2610625543926</v>
+        <v>22.86379166666667</v>
       </c>
       <c r="H30">
-        <v>24.2610625543926</v>
+        <v>68.591375</v>
       </c>
       <c r="I30">
-        <v>0.2443746112177903</v>
+        <v>0.2220833113218723</v>
       </c>
       <c r="J30">
-        <v>0.2443746112177903</v>
+        <v>0.2687971519594387</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>68.75302304277</v>
+        <v>74.052367</v>
       </c>
       <c r="N30">
-        <v>68.75302304277</v>
+        <v>222.157101</v>
       </c>
       <c r="O30">
-        <v>0.07051392152382488</v>
+        <v>0.07396543443869841</v>
       </c>
       <c r="P30">
-        <v>0.07051392152382488</v>
+        <v>0.08216116505753535</v>
       </c>
       <c r="Q30">
-        <v>1668.021392844239</v>
+        <v>1693.117891511542</v>
       </c>
       <c r="R30">
-        <v>1668.021392844239</v>
+        <v>15238.06102360388</v>
       </c>
       <c r="S30">
-        <v>0.01723181215782648</v>
+        <v>0.016426488603507</v>
       </c>
       <c r="T30">
-        <v>0.01723181215782648</v>
+        <v>0.02208468716913485</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,61 +2326,433 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>22.86379166666667</v>
+      </c>
+      <c r="H31">
+        <v>68.591375</v>
+      </c>
+      <c r="I31">
+        <v>0.2220833113218723</v>
+      </c>
+      <c r="J31">
+        <v>0.2687971519594387</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>199.6886825</v>
+      </c>
+      <c r="N31">
+        <v>399.377365</v>
+      </c>
+      <c r="O31">
+        <v>0.1994542612473658</v>
+      </c>
+      <c r="P31">
+        <v>0.1477031769783876</v>
+      </c>
+      <c r="Q31">
+        <v>4565.640434871146</v>
+      </c>
+      <c r="R31">
+        <v>27393.84260922687</v>
+      </c>
+      <c r="S31">
+        <v>0.0442954627950728</v>
+      </c>
+      <c r="T31">
+        <v>0.03970219330715152</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>24.439427</v>
+      </c>
+      <c r="H32">
+        <v>48.878854</v>
+      </c>
+      <c r="I32">
+        <v>0.2373879605840752</v>
+      </c>
+      <c r="J32">
+        <v>0.1915473592159542</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>99.91867449999999</v>
+      </c>
+      <c r="N32">
+        <v>199.837349</v>
+      </c>
+      <c r="O32">
+        <v>0.09980137661138361</v>
+      </c>
+      <c r="P32">
+        <v>0.07390657035918602</v>
+      </c>
+      <c r="Q32">
+        <v>2441.955151379512</v>
+      </c>
+      <c r="R32">
+        <v>9767.820605518047</v>
+      </c>
+      <c r="S32">
+        <v>0.02369164525725957</v>
+      </c>
+      <c r="T32">
+        <v>0.01415660838101019</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>24.439427</v>
+      </c>
+      <c r="H33">
+        <v>48.878854</v>
+      </c>
+      <c r="I33">
+        <v>0.2373879605840752</v>
+      </c>
+      <c r="J33">
+        <v>0.1915473592159542</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>302.8987833333333</v>
+      </c>
+      <c r="N33">
+        <v>908.6963499999999</v>
+      </c>
+      <c r="O33">
+        <v>0.3025432002761394</v>
+      </c>
+      <c r="P33">
+        <v>0.3360664613620876</v>
+      </c>
+      <c r="Q33">
+        <v>7402.672703663817</v>
+      </c>
+      <c r="R33">
+        <v>44416.0362219829</v>
+      </c>
+      <c r="S33">
+        <v>0.07182011330213214</v>
+      </c>
+      <c r="T33">
+        <v>0.06437264319495838</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>24.439427</v>
+      </c>
+      <c r="H34">
+        <v>48.878854</v>
+      </c>
+      <c r="I34">
+        <v>0.2373879605840752</v>
+      </c>
+      <c r="J34">
+        <v>0.1915473592159542</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>141.0632323333333</v>
+      </c>
+      <c r="N34">
+        <v>423.189697</v>
+      </c>
+      <c r="O34">
+        <v>0.1408976334660855</v>
+      </c>
+      <c r="P34">
+        <v>0.1565097779425262</v>
+      </c>
+      <c r="Q34">
+        <v>3447.50456899454</v>
+      </c>
+      <c r="R34">
+        <v>20685.02741396724</v>
+      </c>
+      <c r="S34">
+        <v>0.03344740185963658</v>
+      </c>
+      <c r="T34">
+        <v>0.02997903465636629</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>24.439427</v>
+      </c>
+      <c r="H35">
+        <v>48.878854</v>
+      </c>
+      <c r="I35">
+        <v>0.2373879605840752</v>
+      </c>
+      <c r="J35">
+        <v>0.1915473592159542</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>183.5535736666667</v>
+      </c>
+      <c r="N35">
+        <v>550.660721</v>
+      </c>
+      <c r="O35">
+        <v>0.1833380939603272</v>
+      </c>
+      <c r="P35">
+        <v>0.2036528483002774</v>
+      </c>
+      <c r="Q35">
+        <v>4485.944164215623</v>
+      </c>
+      <c r="R35">
+        <v>26915.66498529373</v>
+      </c>
+      <c r="S35">
+        <v>0.04352225622261361</v>
+      </c>
+      <c r="T35">
+        <v>0.03900916528872547</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
         <v>24</v>
       </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>24.2610625543926</v>
-      </c>
-      <c r="H31">
-        <v>24.2610625543926</v>
-      </c>
-      <c r="I31">
-        <v>0.2443746112177903</v>
-      </c>
-      <c r="J31">
-        <v>0.2443746112177903</v>
-      </c>
-      <c r="K31">
-        <v>1</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>199.682148716699</v>
-      </c>
-      <c r="N31">
-        <v>199.682148716699</v>
-      </c>
-      <c r="O31">
-        <v>0.2047963964516717</v>
-      </c>
-      <c r="P31">
-        <v>0.2047963964516717</v>
-      </c>
-      <c r="Q31">
-        <v>4844.50110101136</v>
-      </c>
-      <c r="R31">
-        <v>4844.50110101136</v>
-      </c>
-      <c r="S31">
-        <v>0.05004703976168171</v>
-      </c>
-      <c r="T31">
-        <v>0.05004703976168171</v>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>24.439427</v>
+      </c>
+      <c r="H36">
+        <v>48.878854</v>
+      </c>
+      <c r="I36">
+        <v>0.2373879605840752</v>
+      </c>
+      <c r="J36">
+        <v>0.1915473592159542</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>74.052367</v>
+      </c>
+      <c r="N36">
+        <v>222.157101</v>
+      </c>
+      <c r="O36">
+        <v>0.07396543443869841</v>
+      </c>
+      <c r="P36">
+        <v>0.08216116505753535</v>
+      </c>
+      <c r="Q36">
+        <v>1809.797417473709</v>
+      </c>
+      <c r="R36">
+        <v>10858.78450484226</v>
+      </c>
+      <c r="S36">
+        <v>0.01755850363511773</v>
+      </c>
+      <c r="T36">
+        <v>0.01573775419687702</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>24.439427</v>
+      </c>
+      <c r="H37">
+        <v>48.878854</v>
+      </c>
+      <c r="I37">
+        <v>0.2373879605840752</v>
+      </c>
+      <c r="J37">
+        <v>0.1915473592159542</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>199.6886825</v>
+      </c>
+      <c r="N37">
+        <v>399.377365</v>
+      </c>
+      <c r="O37">
+        <v>0.1994542612473658</v>
+      </c>
+      <c r="P37">
+        <v>0.1477031769783876</v>
+      </c>
+      <c r="Q37">
+        <v>4880.276978684928</v>
+      </c>
+      <c r="R37">
+        <v>19521.10791473971</v>
+      </c>
+      <c r="S37">
+        <v>0.04734804030731551</v>
+      </c>
+      <c r="T37">
+        <v>0.02829215349801687</v>
       </c>
     </row>
   </sheetData>
